--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test5.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA7DF85-4336-408B-8C43-72C7366DCA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEADCCF-0D6B-4409-906D-F86A1A145E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,9 +486,6 @@
     <t xml:space="preserve">Осадка на кормовом перпендикуляре                               </t>
   </si>
   <si>
-    <t>Осадка средняя                                                  </t>
-  </si>
-  <si>
     <t>Осадка на носовом перпендикуляре                                </t>
   </si>
   <si>
@@ -679,6 +676,9 @@
   </si>
   <si>
     <t>full</t>
+  </si>
+  <si>
+    <t>Осадка в цт площади ватерлинии                                                 </t>
   </si>
 </sst>
 </file>
@@ -1196,31 +1196,31 @@
         <v>76</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1245,7 +1245,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -1284,10 +1284,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="19">
         <v>13238.467000000001</v>
@@ -1298,7 +1298,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>112</v>
@@ -1312,7 +1312,7 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>112</v>
@@ -1326,10 +1326,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" s="19">
         <v>6.4580000000000002</v>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>112</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -1376,7 +1376,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>112</v>
@@ -1390,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>112</v>
@@ -1418,10 +1418,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>54</v>
@@ -1435,7 +1435,7 @@
         <v>145</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="19">
         <v>-0.02</v>
@@ -1446,7 +1446,7 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>112</v>
@@ -1461,7 +1461,7 @@
         <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>112</v>
@@ -1475,7 +1475,7 @@
         <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>112</v>
@@ -1489,7 +1489,7 @@
         <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>112</v>
@@ -1503,7 +1503,7 @@
         <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>112</v>
@@ -1517,7 +1517,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>112</v>
@@ -1531,7 +1531,7 @@
         <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>112</v>
@@ -1545,7 +1545,7 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>112</v>
@@ -1559,7 +1559,7 @@
         <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>112</v>
@@ -1573,7 +1573,7 @@
         <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>112</v>
@@ -1587,7 +1587,7 @@
         <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>112</v>
@@ -1601,7 +1601,7 @@
         <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>112</v>
@@ -1615,7 +1615,7 @@
         <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>112</v>
@@ -1629,7 +1629,7 @@
         <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>112</v>
@@ -1643,7 +1643,7 @@
         <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>112</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -1665,10 +1665,10 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D31" s="19">
         <v>19.66</v>
@@ -1679,10 +1679,10 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>54</v>
@@ -1693,10 +1693,10 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D33" s="19">
         <v>183.44</v>
@@ -1707,7 +1707,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>112</v>
@@ -1763,7 +1763,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>112</v>
@@ -1779,7 +1779,7 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>112</v>
@@ -1895,7 +1895,7 @@
         <v>90</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>54</v>
@@ -1909,7 +1909,7 @@
         <v>91</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>54</v>
@@ -1966,7 +1966,7 @@
         <v>95</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" s="19">
         <v>6.57</v>
@@ -1980,7 +1980,7 @@
         <v>96</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D53" s="19" t="s">
         <v>54</v>
@@ -1994,7 +1994,7 @@
         <v>97</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D54" s="19" t="s">
         <v>54</v>
@@ -2008,7 +2008,7 @@
         <v>98</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D55" s="19" t="s">
         <v>54</v>
@@ -2022,7 +2022,7 @@
         <v>99</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>54</v>
@@ -2036,7 +2036,7 @@
         <v>100</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D57" s="19" t="s">
         <v>54</v>
@@ -2050,7 +2050,7 @@
         <v>101</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D58" s="19" t="s">
         <v>54</v>
@@ -2064,7 +2064,7 @@
         <v>102</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D59" s="19" t="s">
         <v>54</v>
@@ -2078,7 +2078,7 @@
         <v>103</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>54</v>
@@ -2092,7 +2092,7 @@
         <v>104</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>105</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>54</v>
@@ -2120,7 +2120,7 @@
         <v>106</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>54</v>
@@ -2134,7 +2134,7 @@
         <v>107</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>54</v>
@@ -2226,7 +2226,7 @@
         <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2279,7 +2279,7 @@
         <v>227.23400000000001</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2330,7 +2330,7 @@
         <v>129.84800000000001</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2381,7 +2381,7 @@
         <v>128.392</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2398,7 +2398,7 @@
         <v>128.392</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2449,7 +2449,7 @@
         <v>129.94499999999999</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2466,7 +2466,7 @@
         <v>129.94499999999999</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2534,7 +2534,7 @@
         <v>204.267</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2619,7 +2619,7 @@
         <v>6.6</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2636,7 +2636,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2653,7 +2653,7 @@
         <v>7.8</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2670,7 +2670,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2704,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2755,7 +2755,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2772,7 +2772,7 @@
         <v>17</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2806,7 +2806,7 @@
         <v>0.5</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2823,7 +2823,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2840,7 +2840,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2874,7 +2874,7 @@
         <v>1.8</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2925,7 +2925,7 @@
         <v>0.4</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2942,7 +2942,7 @@
         <v>6.7</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2959,7 +2959,7 @@
         <v>0.3</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3027,7 +3027,7 @@
         <v>8.4</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3044,7 +3044,7 @@
         <v>6</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3061,7 +3061,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3078,7 +3078,7 @@
         <v>3.6</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3095,7 +3095,7 @@
         <v>3.6</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3223,16 +3223,16 @@
         <v>64</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>70</v>
@@ -3241,16 +3241,16 @@
         <v>71</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>203</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3657,7 +3657,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -3665,7 +3665,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -4298,7 +4298,7 @@
         <v>119</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>54</v>
@@ -4321,7 +4321,7 @@
         <v>122</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="19">
         <v>6.57</v>
@@ -4344,7 +4344,7 @@
         <v>123</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>54</v>
@@ -4367,7 +4367,7 @@
         <v>124</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>54</v>
@@ -4390,7 +4390,7 @@
         <v>125</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>54</v>
@@ -4413,7 +4413,7 @@
         <v>126</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>54</v>
@@ -4505,7 +4505,7 @@
         <v>130</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="19">
         <v>51.01</v>
@@ -4528,7 +4528,7 @@
         <v>131</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>54</v>
@@ -4574,7 +4574,7 @@
         <v>133</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>54</v>
@@ -4597,7 +4597,7 @@
         <v>134</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>54</v>
@@ -4620,7 +4620,7 @@
         <v>135</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>54</v>
@@ -4643,7 +4643,7 @@
         <v>136</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>54</v>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test5.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEADCCF-0D6B-4409-906D-F86A1A145E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C349B8C-C5B5-4466-B6A0-44176A34A4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="215">
   <si>
     <t>Форпик</t>
   </si>
@@ -282,9 +282,6 @@
     <t xml:space="preserve"> №   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Наименование                                                    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Размерность  </t>
   </si>
   <si>
@@ -679,6 +676,18 @@
   </si>
   <si>
     <t>Осадка в цт площади ватерлинии                                                 </t>
+  </si>
+  <si>
+    <t>Погрешность относительная</t>
+  </si>
+  <si>
+    <t>Погрешность абсолютная</t>
+  </si>
+  <si>
+    <t>±0,5 % ширины судна</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Наименование</t>
   </si>
 </sst>
 </file>
@@ -772,7 +781,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -842,8 +851,20 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1196,31 +1217,31 @@
         <v>76</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1244,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1253,438 +1274,620 @@
     <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="19">
         <v>13238.467000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="10">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="19">
         <v>65.409000000000006</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="19">
         <v>65.409000000000006</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="19">
         <v>6.4580000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="19">
         <v>6.4630000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>52</v>
       </c>
       <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="D8" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="19">
         <v>7.5389999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="19">
         <v>7.4960000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="19">
         <v>7.5819999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D14" s="19">
         <v>-0.02</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="19">
         <f>D11-D12</f>
         <v>-8.599999999999941E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="10">
+        <v>1</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D31" s="19">
         <v>19.66</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D32" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1693,13 +1896,19 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D33" s="19">
         <v>183.44</v>
+      </c>
+      <c r="E33" s="10">
+        <v>2</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1707,12 +1916,18 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1721,12 +1936,18 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1735,13 +1956,19 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="19">
         <v>6.7839999999999998</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1749,13 +1976,19 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="21">
         <v>0.32600000000000001</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0.05</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1763,15 +1996,21 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="21">
         <f>68.928/D3</f>
         <v>5.2066451500766666E-3</v>
       </c>
+      <c r="E38" s="10">
+        <v>2</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="L38" s="10"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1779,28 +2018,40 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="21">
         <f>6.704/D3</f>
         <v>5.0640304500513536E-4</v>
       </c>
+      <c r="E39" s="10">
+        <v>2</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" s="21">
         <v>0.32</v>
+      </c>
+      <c r="E40" s="10">
+        <v>1</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0.05</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -1808,12 +2059,18 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D41" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1822,12 +2079,18 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D42" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1836,13 +2099,19 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>54</v>
+      </c>
+      <c r="E43" s="10">
+        <v>1</v>
+      </c>
+      <c r="F43" s="10">
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -1850,12 +2119,18 @@
         <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D44" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1864,12 +2139,18 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D45" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1878,12 +2159,18 @@
         <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D46" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1892,12 +2179,18 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D47" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1906,287 +2199,407 @@
         <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>54</v>
       </c>
+      <c r="E48" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="L48" s="10"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D49" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="10">
+        <v>5</v>
+      </c>
+      <c r="F49" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D50" s="19">
         <v>3.9E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="10">
+        <v>5</v>
+      </c>
+      <c r="F50" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D51" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="10">
+        <v>5</v>
+      </c>
+      <c r="F51" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" s="19">
         <v>6.57</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D53" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D54" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D55" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D57" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D58" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D59" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>46</v>
       </c>
       <c r="B60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F61" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="10">
+        <v>5</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F63" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>50</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C65" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F65" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>54</v>
+      </c>
+      <c r="B66" t="s">
         <v>112</v>
       </c>
-      <c r="D65" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="10">
-        <v>54</v>
-      </c>
-      <c r="B66" t="s">
-        <v>113</v>
-      </c>
       <c r="C66" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D66" s="19">
         <v>62.167999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="10">
+        <v>1</v>
+      </c>
+      <c r="F66" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>55</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>54</v>
+      </c>
+      <c r="E67" s="10">
+        <v>1</v>
+      </c>
+      <c r="F67" s="10">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A30:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2226,7 +2639,7 @@
         <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -2245,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2262,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2279,7 +2692,7 @@
         <v>227.23400000000001</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2296,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2313,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2330,7 +2743,7 @@
         <v>129.84800000000001</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2347,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2364,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2381,7 +2794,7 @@
         <v>128.392</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2398,7 +2811,7 @@
         <v>128.392</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2415,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2432,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2449,7 +2862,7 @@
         <v>129.94499999999999</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2466,7 +2879,7 @@
         <v>129.94499999999999</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2483,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2500,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2517,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2534,7 +2947,7 @@
         <v>204.267</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2551,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2568,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2585,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2602,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2619,7 +3032,7 @@
         <v>6.6</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2636,7 +3049,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2653,7 +3066,7 @@
         <v>7.8</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2670,7 +3083,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2687,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2704,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2721,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2738,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2755,7 +3168,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2772,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2789,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2806,7 +3219,7 @@
         <v>0.5</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2823,7 +3236,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2840,7 +3253,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2857,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2874,7 +3287,7 @@
         <v>1.8</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2891,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2908,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2925,7 +3338,7 @@
         <v>0.4</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2942,7 +3355,7 @@
         <v>6.7</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2959,7 +3372,7 @@
         <v>0.3</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2976,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2993,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3010,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3027,7 +3440,7 @@
         <v>8.4</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3044,7 +3457,7 @@
         <v>6</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3061,7 +3474,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3078,7 +3491,7 @@
         <v>3.6</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3095,7 +3508,7 @@
         <v>3.6</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3112,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3158,7 +3571,7 @@
         <v>56</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3176,7 +3589,7 @@
         <v>3948</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3194,7 +3607,7 @@
         <v>4683</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3223,16 +3636,16 @@
         <v>64</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>199</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>70</v>
@@ -3241,16 +3654,16 @@
         <v>71</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3657,7 +4070,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -3665,7 +4078,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -4010,29 +4423,39 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2769FB-623F-4B71-8DF9-7FDDF69C0946}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>18.600000000000001</v>
       </c>
@@ -4045,8 +4468,14 @@
       <c r="D2" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>39.32</v>
       </c>
@@ -4059,8 +4488,14 @@
       <c r="D3" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="10">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>91.12</v>
       </c>
@@ -4073,8 +4508,14 @@
       <c r="D4" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>119.98</v>
       </c>
@@ -4087,8 +4528,14 @@
       <c r="D5" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="10">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>54.88</v>
       </c>
@@ -4101,8 +4548,14 @@
       <c r="D6" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="10">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>100.68</v>
       </c>
@@ -4115,8 +4568,14 @@
       <c r="D7" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>29.68</v>
       </c>
@@ -4129,8 +4588,14 @@
       <c r="D8" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>110.38</v>
       </c>
@@ -4143,6 +4608,7 @@
       <c r="D9" s="10" t="s">
         <v>54</v>
       </c>
+      <c r="F9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4151,108 +4617,214 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5DE354-6FE8-4F4E-92DF-8FA9F59E1489}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.375" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>0</v>
       </c>
       <c r="B2" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="10">
+        <v>5</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="24">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="10">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>5</v>
       </c>
       <c r="B4" s="24">
         <v>2.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="10">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>10</v>
       </c>
       <c r="B5" s="24">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="10">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>15</v>
       </c>
       <c r="B6" s="24">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="10">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>20</v>
       </c>
       <c r="B7" s="24">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="10">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>30</v>
       </c>
       <c r="B8" s="24">
         <v>0.32700000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="10">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>40</v>
       </c>
       <c r="B9" s="24">
         <v>0.52400000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="10">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>50</v>
       </c>
       <c r="B10" s="24">
         <v>0.66300000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>60</v>
       </c>
       <c r="B11" s="24">
         <v>0.61099999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="10">
+        <v>5</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4265,7 +4837,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4274,43 +4846,52 @@
     <col min="2" max="2" width="41.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" s="28" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>108</v>
-      </c>
+      <c r="C1" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
         <v>119</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4318,22 +4899,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="19">
         <v>6.57</v>
       </c>
-      <c r="E3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" t="s">
-        <v>121</v>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4341,22 +4922,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" t="s">
-        <v>121</v>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4364,22 +4945,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" t="s">
-        <v>121</v>
+      <c r="E5" s="10">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4387,22 +4968,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" t="s">
-        <v>121</v>
+      <c r="E6" s="10">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4410,22 +4991,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" t="s">
-        <v>121</v>
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4433,22 +5014,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" t="s">
-        <v>121</v>
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.05</v>
       </c>
       <c r="G8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4456,22 +5037,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" t="s">
-        <v>121</v>
+      <c r="E9" s="10">
+        <v>5</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.05</v>
       </c>
       <c r="G9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -4479,22 +5060,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" t="s">
-        <v>121</v>
+      <c r="E10" s="10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.05</v>
       </c>
       <c r="G10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4502,22 +5083,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" s="19">
         <v>51.01</v>
       </c>
-      <c r="E11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" t="s">
-        <v>121</v>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4525,22 +5106,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" t="s">
-        <v>121</v>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -4548,22 +5129,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" t="s">
-        <v>121</v>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.05</v>
       </c>
       <c r="G13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -4571,22 +5152,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" t="s">
-        <v>121</v>
+      <c r="E14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4594,22 +5175,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F15" t="s">
-        <v>121</v>
-      </c>
       <c r="G15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4617,22 +5198,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F16" t="s">
-        <v>121</v>
-      </c>
       <c r="G16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4640,22 +5221,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E17" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" t="s">
-        <v>121</v>
+      <c r="E17" s="10">
+        <v>5</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4663,22 +5244,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" t="s">
-        <v>121</v>
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.05</v>
       </c>
       <c r="G18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test5.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C349B8C-C5B5-4466-B6A0-44176A34A4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553E3266-686A-4723-907C-B2DEB99E23B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -854,9 +854,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -865,6 +862,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1265,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:F30"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1281,16 +1281,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>107</v>
       </c>
       <c r="E1" s="25" t="s">
@@ -1301,14 +1301,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
@@ -1431,14 +1431,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
@@ -1842,14 +1842,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
@@ -2111,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="10">
-        <v>50</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -4436,16 +4436,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E1" s="25" t="s">
@@ -4632,10 +4632,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>116</v>
       </c>
       <c r="C1" s="25" t="s">
@@ -4850,17 +4850,17 @@
     <col min="6" max="6" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="28" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" s="27" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>107</v>
       </c>
       <c r="E1" s="25" t="s">
@@ -4869,7 +4869,7 @@
       <c r="F1" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="27"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10">

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test5.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553E3266-686A-4723-907C-B2DEB99E23B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2441BBC-67B0-4AE0-AE47-1D1C794C01BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="214">
   <si>
     <t>Форпик</t>
   </si>
@@ -403,9 +403,6 @@
   </si>
   <si>
     <t xml:space="preserve">        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     </t>
   </si>
   <si>
     <t xml:space="preserve"> Статический крен от ветра              </t>
@@ -1217,31 +1214,31 @@
         <v>76</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1265,7 +1262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
@@ -1285,7 +1282,7 @@
         <v>78</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>79</v>
@@ -1294,15 +1291,15 @@
         <v>107</v>
       </c>
       <c r="E1" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>211</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -1315,10 +1312,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="19">
         <v>13238.467000000001</v>
@@ -1335,7 +1332,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>111</v>
@@ -1355,7 +1352,7 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>111</v>
@@ -1375,10 +1372,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="19">
         <v>6.4580000000000002</v>
@@ -1395,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>111</v>
@@ -1424,7 +1421,7 @@
         <v>54</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F8" s="10">
         <v>0.05</v>
@@ -1432,7 +1429,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -1445,7 +1442,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>111</v>
@@ -1465,7 +1462,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>111</v>
@@ -1485,7 +1482,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>111</v>
@@ -1505,10 +1502,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>54</v>
@@ -1525,10 +1522,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D14" s="19">
         <v>-0.02</v>
@@ -1545,7 +1542,7 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>111</v>
@@ -1566,7 +1563,7 @@
         <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>111</v>
@@ -1586,7 +1583,7 @@
         <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>111</v>
@@ -1606,7 +1603,7 @@
         <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>111</v>
@@ -1626,7 +1623,7 @@
         <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>111</v>
@@ -1646,7 +1643,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>111</v>
@@ -1666,7 +1663,7 @@
         <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>111</v>
@@ -1686,7 +1683,7 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>111</v>
@@ -1706,7 +1703,7 @@
         <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>111</v>
@@ -1726,7 +1723,7 @@
         <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>111</v>
@@ -1746,7 +1743,7 @@
         <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>111</v>
@@ -1766,7 +1763,7 @@
         <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>111</v>
@@ -1786,7 +1783,7 @@
         <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>111</v>
@@ -1806,7 +1803,7 @@
         <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>111</v>
@@ -1826,7 +1823,7 @@
         <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>111</v>
@@ -1843,7 +1840,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -1856,10 +1853,10 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D31" s="19">
         <v>19.66</v>
@@ -1876,10 +1873,10 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>54</v>
@@ -1896,10 +1893,10 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D33" s="19">
         <v>183.44</v>
@@ -1916,7 +1913,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>111</v>
@@ -1996,7 +1993,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>111</v>
@@ -2018,7 +2015,7 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>111</v>
@@ -2182,7 +2179,7 @@
         <v>89</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>54</v>
@@ -2202,7 +2199,7 @@
         <v>90</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>54</v>
@@ -2283,7 +2280,7 @@
         <v>94</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D52" s="19">
         <v>6.57</v>
@@ -2303,7 +2300,7 @@
         <v>95</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D53" s="19" t="s">
         <v>54</v>
@@ -2323,7 +2320,7 @@
         <v>96</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D54" s="19" t="s">
         <v>54</v>
@@ -2343,7 +2340,7 @@
         <v>97</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D55" s="19" t="s">
         <v>54</v>
@@ -2363,7 +2360,7 @@
         <v>98</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>54</v>
@@ -2383,7 +2380,7 @@
         <v>99</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D57" s="19" t="s">
         <v>54</v>
@@ -2403,7 +2400,7 @@
         <v>100</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D58" s="19" t="s">
         <v>54</v>
@@ -2423,7 +2420,7 @@
         <v>101</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D59" s="19" t="s">
         <v>54</v>
@@ -2443,7 +2440,7 @@
         <v>102</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>54</v>
@@ -2463,7 +2460,7 @@
         <v>103</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>54</v>
@@ -2483,7 +2480,7 @@
         <v>104</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>54</v>
@@ -2503,7 +2500,7 @@
         <v>105</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>54</v>
@@ -2523,7 +2520,7 @@
         <v>106</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>54</v>
@@ -2549,7 +2546,7 @@
         <v>54</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F65" s="10">
         <v>0.05</v>
@@ -2639,7 +2636,7 @@
         <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -2658,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2675,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2692,7 +2689,7 @@
         <v>227.23400000000001</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2709,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2726,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2743,7 +2740,7 @@
         <v>129.84800000000001</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2760,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2777,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2794,7 +2791,7 @@
         <v>128.392</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2811,7 +2808,7 @@
         <v>128.392</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2828,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2845,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2862,7 +2859,7 @@
         <v>129.94499999999999</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2879,7 +2876,7 @@
         <v>129.94499999999999</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2896,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2913,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2930,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2947,7 +2944,7 @@
         <v>204.267</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2964,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2981,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2998,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3015,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3032,7 +3029,7 @@
         <v>6.6</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3049,7 +3046,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3066,7 +3063,7 @@
         <v>7.8</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3083,7 +3080,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3100,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3117,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3134,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3151,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3168,7 +3165,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3185,7 +3182,7 @@
         <v>17</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3202,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3219,7 +3216,7 @@
         <v>0.5</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3236,7 +3233,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3253,7 +3250,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3270,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3287,7 +3284,7 @@
         <v>1.8</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3304,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3321,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3338,7 +3335,7 @@
         <v>0.4</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3355,7 +3352,7 @@
         <v>6.7</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3372,7 +3369,7 @@
         <v>0.3</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3389,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3406,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3423,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3440,7 +3437,7 @@
         <v>8.4</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3457,7 +3454,7 @@
         <v>6</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3474,7 +3471,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3491,7 +3488,7 @@
         <v>3.6</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3508,7 +3505,7 @@
         <v>3.6</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3525,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3636,16 +3633,16 @@
         <v>64</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>70</v>
@@ -3654,16 +3651,16 @@
         <v>71</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4070,7 +4067,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -4078,7 +4075,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -4437,22 +4434,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="E1" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>211</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4639,10 +4636,10 @@
         <v>116</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>211</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4836,7 +4833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E500720D-7F16-4373-97E5-9F957C7E1B58}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -4852,22 +4849,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="27" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>107</v>
       </c>
       <c r="E1" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>211</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>212</v>
       </c>
       <c r="G1" s="26"/>
     </row>
@@ -4879,7 +4876,7 @@
         <v>118</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>54</v>
@@ -4899,19 +4896,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D3" s="19">
         <v>6.57</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="10">
         <v>1</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>119</v>
@@ -4922,10 +4919,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>54</v>
@@ -4945,10 +4942,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>54</v>
@@ -4968,10 +4965,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>54</v>
@@ -4991,10 +4988,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>54</v>
@@ -5014,7 +5011,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>111</v>
@@ -5037,7 +5034,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>111</v>
@@ -5060,7 +5057,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>111</v>
@@ -5083,19 +5080,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" s="19">
         <v>51.01</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="10">
         <v>1</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="G11" t="s">
         <v>119</v>
@@ -5106,19 +5103,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="10">
         <v>1</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="G12" t="s">
         <v>119</v>
@@ -5129,7 +5126,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>111</v>
@@ -5152,10 +5149,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>54</v>
@@ -5175,19 +5172,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="10">
         <v>1</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="G15" t="s">
         <v>119</v>
@@ -5198,19 +5195,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="10">
         <v>1</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="G16" t="s">
         <v>119</v>
@@ -5221,10 +5218,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>54</v>
@@ -5244,7 +5241,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>111</v>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test5.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2441BBC-67B0-4AE0-AE47-1D1C794C01BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7F21DA-ABFB-405A-A980-9D81E03ACDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="215">
   <si>
     <t>Форпик</t>
   </si>
@@ -685,6 +685,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Наименование</t>
+  </si>
+  <si>
+    <t>Поправка к поперечной метацентрической высоте</t>
   </si>
 </sst>
 </file>
@@ -1260,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2590,6 +2593,27 @@
       </c>
       <c r="F67" s="10">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>95</v>
+      </c>
+      <c r="B68" t="s">
+        <v>214</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" s="24">
+        <f>D38+D39</f>
+        <v>5.7130481950818015E-3</v>
+      </c>
+      <c r="E68" s="10">
+        <v>2</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4833,7 +4857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E500720D-7F16-4373-97E5-9F957C7E1B58}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test5.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7F21DA-ABFB-405A-A980-9D81E03ACDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1470EAC-CB8D-4BB4-9CE0-65B962D94D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="215">
   <si>
     <t>Форпик</t>
   </si>
@@ -1265,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:F68"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2005,8 +2005,8 @@
         <f>68.928/D3</f>
         <v>5.2066451500766666E-3</v>
       </c>
-      <c r="E38" s="10">
-        <v>2</v>
+      <c r="E38" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>54</v>
@@ -2027,8 +2027,8 @@
         <f>6.704/D3</f>
         <v>5.0640304500513536E-4</v>
       </c>
-      <c r="E39" s="10">
-        <v>2</v>
+      <c r="E39" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>54</v>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test5.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1470EAC-CB8D-4BB4-9CE0-65B962D94D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB14BCB-4D3B-4FC0-8F22-6A20583D935C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="215">
   <si>
     <t>Форпик</t>
   </si>
@@ -1265,7 +1265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
@@ -3646,8 +3646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C7A2BB-640B-4F69-A8C8-D316349120B8}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3688,39 +3688,17 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test5.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB14BCB-4D3B-4FC0-8F22-6A20583D935C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949BF174-9CA2-4074-8641-AF5417AB92E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -2631,8 +2631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G50" sqref="G49:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3053,7 +3053,7 @@
         <v>6.6</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3070,7 +3070,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3087,7 +3087,7 @@
         <v>7.8</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3104,7 +3104,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3189,7 +3189,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3206,7 +3206,7 @@
         <v>17</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3240,7 +3240,7 @@
         <v>0.5</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3257,7 +3257,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3274,7 +3274,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3308,7 +3308,7 @@
         <v>1.8</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3359,7 +3359,7 @@
         <v>0.4</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3376,7 +3376,7 @@
         <v>6.7</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3393,7 +3393,7 @@
         <v>0.3</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3461,7 +3461,7 @@
         <v>8.4</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3478,7 +3478,7 @@
         <v>6</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3495,7 +3495,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3512,7 +3512,7 @@
         <v>3.6</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3529,7 +3529,7 @@
         <v>3.6</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3646,7 +3646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C7A2BB-640B-4F69-A8C8-D316349120B8}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>

--- a/assets/fleet/9245263_sofia/test/SSS_Sofia_test5.xlsx
+++ b/assets/fleet/9245263_sofia/test/SSS_Sofia_test5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MERENKOV\Desktop\Капитан\sss\assets\fleet\9245263_sofia\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949BF174-9CA2-4074-8641-AF5417AB92E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CB0960-5FF6-4AD5-ADE4-61A8536C0F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="59" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="215">
   <si>
     <t>Форпик</t>
   </si>
@@ -781,7 +781,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -864,6 +864,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1265,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622C7A3-F812-43D4-BDBF-973F36BAE217}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2631,8 +2637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G50" sqref="G49:G50"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3040,70 +3046,70 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="A24" s="3">
         <v>303</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="30">
         <v>0.97</v>
       </c>
-      <c r="D24" s="13">
-        <v>6.6</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="D24" s="31">
+        <v>6.56</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="A25" s="3">
         <v>304</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="30">
         <v>0.97</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="31">
         <v>15</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="3">
         <v>305</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="30">
         <v>0.97</v>
       </c>
-      <c r="D26" s="13">
-        <v>7.8</v>
-      </c>
-      <c r="E26" s="11" t="s">
+      <c r="D26" s="31">
+        <v>7.7729999999999997</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="A27" s="3">
         <v>306</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="30">
         <v>0.97</v>
       </c>
-      <c r="D27" s="13">
-        <v>10</v>
-      </c>
-      <c r="E27" s="11" t="s">
+      <c r="D27" s="31">
+        <v>9.952</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3142,70 +3148,70 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="A30" s="3">
         <v>231</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="30">
         <v>1.0249999999999999</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="31">
         <v>0</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
+      <c r="A31" s="3">
         <v>232</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="30">
         <v>1.0249999999999999</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="31">
         <v>0</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="3">
         <v>301</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="30">
         <v>0.97</v>
       </c>
-      <c r="D32" s="13">
-        <v>2</v>
-      </c>
-      <c r="E32" s="11" t="s">
+      <c r="D32" s="31">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
+      <c r="A33" s="3">
         <v>302</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="30">
         <v>0.97</v>
       </c>
-      <c r="D33" s="13">
-        <v>17</v>
-      </c>
-      <c r="E33" s="11" t="s">
+      <c r="D33" s="31">
+        <v>17.032</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3216,13 +3222,13 @@
       <c r="B34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="30">
         <v>0.97</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="31">
         <v>0</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3233,13 +3239,13 @@
       <c r="B35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="30">
         <v>0.85</v>
       </c>
-      <c r="D35" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E35" s="11" t="s">
+      <c r="D35" s="31">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3250,13 +3256,13 @@
       <c r="B36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="30">
         <v>0.85</v>
       </c>
-      <c r="D36" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E36" s="11" t="s">
+      <c r="D36" s="31">
+        <v>4.4109999999999996</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3267,13 +3273,13 @@
       <c r="B37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="30">
         <v>0.85</v>
       </c>
-      <c r="D37" s="13">
-        <v>3</v>
-      </c>
-      <c r="E37" s="11" t="s">
+      <c r="D37" s="31">
+        <v>2.9889999999999999</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3284,13 +3290,13 @@
       <c r="B38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="30">
         <v>0.85</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="31">
         <v>0</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3301,13 +3307,13 @@
       <c r="B39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="30">
         <v>0.9</v>
       </c>
-      <c r="D39" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="E39" s="11" t="s">
+      <c r="D39" s="31">
+        <v>1.752</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3318,13 +3324,13 @@
       <c r="B40" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="30">
         <v>0.9</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="31">
         <v>0</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3335,13 +3341,13 @@
       <c r="B41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="30">
         <v>0.9</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="31">
         <v>0</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3352,13 +3358,13 @@
       <c r="B42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="30">
         <v>0.9</v>
       </c>
-      <c r="D42" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E42" s="11" t="s">
+      <c r="D42" s="31">
+        <v>0.376</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3369,13 +3375,13 @@
       <c r="B43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="30">
         <v>0.97</v>
       </c>
-      <c r="D43" s="13">
-        <v>6.7</v>
-      </c>
-      <c r="E43" s="11" t="s">
+      <c r="D43" s="31">
+        <v>6.6680000000000001</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3386,13 +3392,13 @@
       <c r="B44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="30">
         <v>1</v>
       </c>
-      <c r="D44" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="E44" s="11" t="s">
+      <c r="D44" s="31">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3403,13 +3409,13 @@
       <c r="B45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="30">
         <v>1</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="31">
         <v>0</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3420,13 +3426,13 @@
       <c r="B46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="30">
         <v>1</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="31">
         <v>0</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3437,13 +3443,13 @@
       <c r="B47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="30">
         <v>1</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="31">
         <v>0</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3454,13 +3460,13 @@
       <c r="B48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="30">
         <v>1</v>
       </c>
-      <c r="D48" s="13">
-        <v>8.4</v>
-      </c>
-      <c r="E48" s="11" t="s">
+      <c r="D48" s="31">
+        <v>8.3740000000000006</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3471,13 +3477,13 @@
       <c r="B49" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="30">
         <v>1</v>
       </c>
-      <c r="D49" s="13">
-        <v>6</v>
-      </c>
-      <c r="E49" s="11" t="s">
+      <c r="D49" s="31">
+        <v>5.9939999999999998</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3488,13 +3494,13 @@
       <c r="B50" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="30">
         <v>1</v>
       </c>
-      <c r="D50" s="13">
-        <v>6</v>
-      </c>
-      <c r="E50" s="11" t="s">
+      <c r="D50" s="31">
+        <v>5.9939999999999998</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3505,13 +3511,13 @@
       <c r="B51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="30">
         <v>1</v>
       </c>
-      <c r="D51" s="13">
-        <v>3.6</v>
-      </c>
-      <c r="E51" s="11" t="s">
+      <c r="D51" s="31">
+        <v>3.6339999999999999</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3522,13 +3528,13 @@
       <c r="B52" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="30">
         <v>1</v>
       </c>
-      <c r="D52" s="13">
-        <v>3.6</v>
-      </c>
-      <c r="E52" s="11" t="s">
+      <c r="D52" s="31">
+        <v>3.6339999999999999</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3539,13 +3545,13 @@
       <c r="B53" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="30">
         <v>0</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="31">
         <v>0</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4836,7 +4842,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5248,8 +5254,8 @@
       <c r="C18" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>54</v>
+      <c r="D18" s="19">
+        <v>0.187</v>
       </c>
       <c r="E18" s="10">
         <v>1</v>
